--- a/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
     <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
     <sheet name="Include from SNOMED CT 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from ch-vacd-allergyi" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -50,7 +51,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Allergies and Intolerance values for immunization</t>
+    <t>Allergies and Intolerance values for Immunization</t>
   </si>
   <si>
     <t>Status</t>
@@ -68,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T13:48:44+01:00</t>
+    <t>2023-06-29T17:22:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -300,6 +301,33 @@
   </si>
   <si>
     <t>Adverse reaction to component of vaccine product containing Vaccinia virus antigen (disorder)</t>
+  </si>
+  <si>
+    <t>allergyvaccinevarizella</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product containing varicella antigen</t>
+  </si>
+  <si>
+    <t>allergyvaccinehpv</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product containing human papillomavirus antigen</t>
+  </si>
+  <si>
+    <t>allergyvaccineherpeszoster</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product containing Herpes zoster</t>
+  </si>
+  <si>
+    <t>allergyvaccinefsme</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product containing tick-borne encephalitis virus antigen</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-vacd/cs/ch-vacd-allergyintolerance-cs</t>
   </si>
 </sst>
 </file>
@@ -421,10 +449,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -935,4 +963,77 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Swiss AllergyInt" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -31,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: 2.16.756.5.30.1.1.11.76 (use: OFFICIAL)</t>
+    <t>http://art-decor.org/ns/oids/vs#2.16.756.5.30.1.1.11.76 (use: official)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:15:40+01:00</t>
+    <t>2024-05-17T07:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,7 +78,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -316,6 +315,24 @@
     <t>Allergy to component of vaccine product containing Rotavirus antigen (finding)</t>
   </si>
   <si>
+    <t>1303850003</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product containing Tick-borne encephalitis virus antigen (disorder)</t>
+  </si>
+  <si>
+    <t>1303851004</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product containing Human papillomavirus antigen (disorder)</t>
+  </si>
+  <si>
+    <t>1303852006</t>
+  </si>
+  <si>
+    <t>Adverse reaction to component of vaccine product containing Human alphaherpesvirus 3 antigen (disorder)</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -323,33 +340,6 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>allergyvaccinevarizella</t>
-  </si>
-  <si>
-    <t>Adverse reaction to component of vaccine product containing varicella antigen</t>
-  </si>
-  <si>
-    <t>allergyvaccinehpv</t>
-  </si>
-  <si>
-    <t>Adverse reaction to component of vaccine product containing human papillomavirus antigen</t>
-  </si>
-  <si>
-    <t>allergyvaccineherpeszoster</t>
-  </si>
-  <si>
-    <t>Adverse reaction to component of vaccine product containing Herpes zoster</t>
-  </si>
-  <si>
-    <t>allergyvaccinefsme</t>
-  </si>
-  <si>
-    <t>Adverse reaction to component of vaccine product containing tick-borne encephalitis virus antigen</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-allergyintolerance-cs</t>
   </si>
 </sst>
 </file>
@@ -626,7 +616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -921,88 +911,39 @@
         <v>100</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="B2" t="s" s="2">
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="B38" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="B3" t="s" s="2">
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="B39" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B40" t="s" s="2">
         <v>108</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>http://art-decor.org/ns/oids/vs#2.16.756.5.30.1.1.11.76 (use: official)</t>
+    <t>http://art-decor.org/ns/oids/vs#2.16.756.5.30.1.1.11.76 (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:15:18+00:00</t>
+    <t>2024-12-18T07:33:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -27,16 +28,10 @@
     <t>http://fhir.ch/ig/ch-vacd/ValueSet/ch-vacd-immunization-allergyintolerances-vs</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>http://art-decor.org/ns/oids/vs#2.16.756.5.30.1.1.11.76 (use: official, )</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T07:33:04+00:00</t>
+    <t>2025-05-22T09:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,13 +94,13 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>This artefact includes content from SNOMED Clinical Terms® (SNOMED CT®) which is copyright of the International Health Terminology Standards Development Organisation (IHTSDO). Implementers of these artefacts must have the appropriate SNOMED CT Affiliate license - for more information contact http://www.snomed.org/snomed-ct/getsnomed-ct or info@snomed.org.</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[false]</t>
+    <t>BooleanType[null]</t>
   </si>
   <si>
     <t>Concept</t>
@@ -315,6 +310,15 @@
     <t>Allergy to component of vaccine product containing Rotavirus antigen (finding)</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
     <t>1303850003</t>
   </si>
   <si>
@@ -331,15 +335,6 @@
   </si>
   <si>
     <t>Adverse reaction to component of vaccine product containing Human alphaherpesvirus 3 antigen (disorder)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -473,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -583,15 +578,15 @@
       <c r="A13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -599,14 +594,6 @@
       </c>
       <c r="B15" t="s" s="2">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +603,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -628,322 +615,363 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="B37" t="s" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="B38" t="s" s="2">
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="B4" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="B39" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>108</v>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-immunization-allergyintolerances-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T09:46:13+00:00</t>
+    <t>2025-12-16T10:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
